--- a/formatted/candidates/candidates-2/documents/candidates-documents-verified-licences.xlsx
+++ b/formatted/candidates/candidates-2/documents/candidates-documents-verified-licences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-2/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF485C-5285-1045-AED7-25AB13C6C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5F8D9-3B96-AA4A-81C1-2F0C04B97961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="500" windowWidth="42820" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2761,10 +2761,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -2797,7 +2796,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4534059</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4534059</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4534080</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4534080</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4534193</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4533215</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4533215</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4533215</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4533215</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4533264</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4533435</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4534517</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4534517</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4535449</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4535093</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4535117</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4535117</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4535266</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4534950</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4534950</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4534142</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4535659</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4536048</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4536048</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4536048</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4536048</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4536048</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4536048</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4536779</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4536779</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4536779</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4535107</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4535177</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4535177</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4535177</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4535177</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4537402</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4537294</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4537294</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4536457</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4536457</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4536457</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4536457</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4537776</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4538945</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4538671</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4538671</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4538671</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4538671</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4539433</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4540457</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4540457</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4541103</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4541103</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4541116</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4541116</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4541751</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4541751</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4542083</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4542083</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4542477</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4544128</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4544134</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4543819</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4543218</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4545542</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4545542</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4544475</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4520339</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4539026</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4539026</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4539026</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4543226</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4542471</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4534922</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4534922</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4534922</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4532309</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4545632</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4545632</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4545632</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4534783</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4522813</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4522813</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4522813</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4525289</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4520572</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4546062</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4546062</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4546062</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4543883</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4543883</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4542843</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4542843</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4523597</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4547138</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4534287</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4547458</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4547458</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4547458</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4535735</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4547208</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4547218</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4548387</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4538946</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4538946</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4527202</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4527202</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4547863</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4547747</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4545356</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4541967</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4528954</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4528954</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4528954</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4528954</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4528954</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4528954</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4548039</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4548039</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4548039</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4533175</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4533175</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4539185</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4526272</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4526272</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4526272</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4519406</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4548603</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4542400</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4542064</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4537672</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4547534</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4547534</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4547534</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4518826</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4548871</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4548395</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4529170</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4529170</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4522425</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4539353</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4539353</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4525423</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4525423</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4535838</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4547701</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4549375</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4532227</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4549481</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4549242</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4545616</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4549515</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4525297</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4541030</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4540448</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4540448</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4540448</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4540448</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4540448</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4550010</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4550010</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4550253</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4550253</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4533886</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4535324</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4550544</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4550544</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4544984</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4550514</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4541246</v>
       </c>
@@ -5911,7 +5910,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4549703</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4549703</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4549703</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4531924</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4544274</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4544274</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4537325</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4537325</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4532064</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4550353</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4550353</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4533131</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4548097</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4548097</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4548097</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4518854</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4543858</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4543858</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4549369</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4549369</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4549369</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4549369</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4549369</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4549369</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4537061</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4537061</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4551365</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4518860</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4518860</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>4533903</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4551766</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4551766</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4545368</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4552752</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4552752</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4552228</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4545404</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4552297</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4525392</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4525392</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4525392</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4525392</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4521330</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4551769</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4538620</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4551765</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4551765</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4551765</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4549667</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4550394</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4550394</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4549333</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>4549333</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4528680</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4520768</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4520448</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4520448</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>4520448</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4520448</v>
       </c>
@@ -6937,7 +6936,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4520448</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4534548</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4526431</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4521378</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4521378</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4531086</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4522701</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4522701</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4522744</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4541976</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4551259</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4536537</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4540017</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4540017</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4540017</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4520113</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4544681</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4521586</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4521586</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4521586</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4521586</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4553400</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4553400</v>
       </c>
@@ -7400,13 +7399,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F271" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter val="*   *"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
